--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_248.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_248.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32848-d1657144-Reviews-Embassy_Suites_by_Hilton_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>729</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-Embassy-Suites-Palmdale.h2853770.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_248.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_248.xlsx
@@ -10978,7 +10978,7 @@
         <v>59025</v>
       </c>
       <c r="B2" t="n">
-        <v>145549</v>
+        <v>176854</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -11108,7 +11108,7 @@
         <v>59025</v>
       </c>
       <c r="B4" t="n">
-        <v>145550</v>
+        <v>176855</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -11183,7 +11183,7 @@
         <v>59025</v>
       </c>
       <c r="B5" t="n">
-        <v>145551</v>
+        <v>176856</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -11323,7 +11323,7 @@
         <v>59025</v>
       </c>
       <c r="B7" t="n">
-        <v>145552</v>
+        <v>176857</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -11398,7 +11398,7 @@
         <v>59025</v>
       </c>
       <c r="B8" t="n">
-        <v>145553</v>
+        <v>176858</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -11463,7 +11463,7 @@
         <v>59025</v>
       </c>
       <c r="B9" t="n">
-        <v>145554</v>
+        <v>176859</v>
       </c>
       <c r="C9" t="s">
         <v>113</v>
@@ -11538,7 +11538,7 @@
         <v>59025</v>
       </c>
       <c r="B10" t="n">
-        <v>145555</v>
+        <v>176860</v>
       </c>
       <c r="C10" t="s">
         <v>123</v>
@@ -11607,7 +11607,7 @@
         <v>59025</v>
       </c>
       <c r="B11" t="n">
-        <v>145556</v>
+        <v>176861</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -11682,7 +11682,7 @@
         <v>59025</v>
       </c>
       <c r="B12" t="n">
-        <v>145557</v>
+        <v>176862</v>
       </c>
       <c r="C12" t="s">
         <v>143</v>
@@ -11818,7 +11818,7 @@
         <v>59025</v>
       </c>
       <c r="B14" t="n">
-        <v>145558</v>
+        <v>176863</v>
       </c>
       <c r="C14" t="s">
         <v>162</v>
@@ -11893,7 +11893,7 @@
         <v>59025</v>
       </c>
       <c r="B15" t="n">
-        <v>145559</v>
+        <v>176864</v>
       </c>
       <c r="C15" t="s">
         <v>171</v>
@@ -11968,7 +11968,7 @@
         <v>59025</v>
       </c>
       <c r="B16" t="n">
-        <v>145560</v>
+        <v>176865</v>
       </c>
       <c r="C16" t="s">
         <v>178</v>
@@ -12108,7 +12108,7 @@
         <v>59025</v>
       </c>
       <c r="B18" t="n">
-        <v>145561</v>
+        <v>176866</v>
       </c>
       <c r="C18" t="s">
         <v>197</v>
@@ -12183,7 +12183,7 @@
         <v>59025</v>
       </c>
       <c r="B19" t="n">
-        <v>145562</v>
+        <v>176867</v>
       </c>
       <c r="C19" t="s">
         <v>206</v>
@@ -12333,7 +12333,7 @@
         <v>59025</v>
       </c>
       <c r="B21" t="n">
-        <v>145563</v>
+        <v>176868</v>
       </c>
       <c r="C21" t="s">
         <v>221</v>
@@ -12483,7 +12483,7 @@
         <v>59025</v>
       </c>
       <c r="B23" t="n">
-        <v>145564</v>
+        <v>176869</v>
       </c>
       <c r="C23" t="s">
         <v>239</v>
@@ -12558,7 +12558,7 @@
         <v>59025</v>
       </c>
       <c r="B24" t="n">
-        <v>145565</v>
+        <v>176870</v>
       </c>
       <c r="C24" t="s">
         <v>248</v>
@@ -12633,7 +12633,7 @@
         <v>59025</v>
       </c>
       <c r="B25" t="n">
-        <v>145566</v>
+        <v>176871</v>
       </c>
       <c r="C25" t="s">
         <v>257</v>
@@ -12708,7 +12708,7 @@
         <v>59025</v>
       </c>
       <c r="B26" t="n">
-        <v>145567</v>
+        <v>176872</v>
       </c>
       <c r="C26" t="s">
         <v>266</v>
@@ -12783,7 +12783,7 @@
         <v>59025</v>
       </c>
       <c r="B27" t="n">
-        <v>145568</v>
+        <v>176873</v>
       </c>
       <c r="C27" t="s">
         <v>276</v>
@@ -12858,7 +12858,7 @@
         <v>59025</v>
       </c>
       <c r="B28" t="n">
-        <v>145569</v>
+        <v>145573</v>
       </c>
       <c r="C28" t="s">
         <v>285</v>
@@ -13008,7 +13008,7 @@
         <v>59025</v>
       </c>
       <c r="B30" t="n">
-        <v>145570</v>
+        <v>176874</v>
       </c>
       <c r="C30" t="s">
         <v>302</v>
@@ -13083,7 +13083,7 @@
         <v>59025</v>
       </c>
       <c r="B31" t="n">
-        <v>145571</v>
+        <v>176875</v>
       </c>
       <c r="C31" t="s">
         <v>308</v>
@@ -13373,7 +13373,7 @@
         <v>59025</v>
       </c>
       <c r="B35" t="n">
-        <v>145572</v>
+        <v>176876</v>
       </c>
       <c r="C35" t="s">
         <v>347</v>
@@ -13523,7 +13523,7 @@
         <v>59025</v>
       </c>
       <c r="B37" t="n">
-        <v>145573</v>
+        <v>176877</v>
       </c>
       <c r="C37" t="s">
         <v>365</v>
@@ -13663,7 +13663,7 @@
         <v>59025</v>
       </c>
       <c r="B39" t="n">
-        <v>145574</v>
+        <v>176878</v>
       </c>
       <c r="C39" t="s">
         <v>383</v>
@@ -13738,7 +13738,7 @@
         <v>59025</v>
       </c>
       <c r="B40" t="n">
-        <v>145575</v>
+        <v>176879</v>
       </c>
       <c r="C40" t="s">
         <v>389</v>
@@ -13963,7 +13963,7 @@
         <v>59025</v>
       </c>
       <c r="B43" t="n">
-        <v>145576</v>
+        <v>176880</v>
       </c>
       <c r="C43" t="s">
         <v>410</v>
@@ -14034,7 +14034,7 @@
         <v>59025</v>
       </c>
       <c r="B44" t="n">
-        <v>145577</v>
+        <v>176881</v>
       </c>
       <c r="C44" t="s">
         <v>416</v>
@@ -14176,7 +14176,7 @@
         <v>59025</v>
       </c>
       <c r="B46" t="n">
-        <v>145578</v>
+        <v>176882</v>
       </c>
       <c r="C46" t="s">
         <v>429</v>
@@ -14247,7 +14247,7 @@
         <v>59025</v>
       </c>
       <c r="B47" t="n">
-        <v>145579</v>
+        <v>176883</v>
       </c>
       <c r="C47" t="s">
         <v>435</v>
@@ -14318,7 +14318,7 @@
         <v>59025</v>
       </c>
       <c r="B48" t="n">
-        <v>145580</v>
+        <v>176884</v>
       </c>
       <c r="C48" t="s">
         <v>441</v>
@@ -14389,7 +14389,7 @@
         <v>59025</v>
       </c>
       <c r="B49" t="n">
-        <v>145581</v>
+        <v>176885</v>
       </c>
       <c r="C49" t="s">
         <v>447</v>
@@ -14450,7 +14450,7 @@
         <v>59025</v>
       </c>
       <c r="B50" t="n">
-        <v>145582</v>
+        <v>176886</v>
       </c>
       <c r="C50" t="s">
         <v>454</v>
@@ -14521,7 +14521,7 @@
         <v>59025</v>
       </c>
       <c r="B51" t="n">
-        <v>145583</v>
+        <v>176887</v>
       </c>
       <c r="C51" t="s">
         <v>461</v>
@@ -14596,7 +14596,7 @@
         <v>59025</v>
       </c>
       <c r="B52" t="n">
-        <v>145584</v>
+        <v>176888</v>
       </c>
       <c r="C52" t="s">
         <v>470</v>
@@ -14967,7 +14967,7 @@
         <v>59025</v>
       </c>
       <c r="B57" t="n">
-        <v>145585</v>
+        <v>176889</v>
       </c>
       <c r="C57" t="s">
         <v>510</v>
@@ -15038,7 +15038,7 @@
         <v>59025</v>
       </c>
       <c r="B58" t="n">
-        <v>145586</v>
+        <v>176890</v>
       </c>
       <c r="C58" t="s">
         <v>517</v>
@@ -15109,7 +15109,7 @@
         <v>59025</v>
       </c>
       <c r="B59" t="n">
-        <v>145587</v>
+        <v>176891</v>
       </c>
       <c r="C59" t="s">
         <v>525</v>
@@ -15182,7 +15182,7 @@
         <v>59025</v>
       </c>
       <c r="B60" t="n">
-        <v>145588</v>
+        <v>176892</v>
       </c>
       <c r="C60" t="s">
         <v>534</v>
@@ -15247,7 +15247,7 @@
         <v>59025</v>
       </c>
       <c r="B61" t="n">
-        <v>145589</v>
+        <v>176893</v>
       </c>
       <c r="C61" t="s">
         <v>541</v>
@@ -15322,7 +15322,7 @@
         <v>59025</v>
       </c>
       <c r="B62" t="n">
-        <v>145590</v>
+        <v>176894</v>
       </c>
       <c r="C62" t="s">
         <v>551</v>
@@ -15397,7 +15397,7 @@
         <v>59025</v>
       </c>
       <c r="B63" t="n">
-        <v>145591</v>
+        <v>176895</v>
       </c>
       <c r="C63" t="s">
         <v>558</v>
@@ -15472,7 +15472,7 @@
         <v>59025</v>
       </c>
       <c r="B64" t="n">
-        <v>145592</v>
+        <v>176896</v>
       </c>
       <c r="C64" t="s">
         <v>565</v>
@@ -15622,7 +15622,7 @@
         <v>59025</v>
       </c>
       <c r="B66" t="n">
-        <v>145593</v>
+        <v>145730</v>
       </c>
       <c r="C66" t="s">
         <v>578</v>
@@ -15687,7 +15687,7 @@
         <v>59025</v>
       </c>
       <c r="B67" t="n">
-        <v>145594</v>
+        <v>176897</v>
       </c>
       <c r="C67" t="s">
         <v>585</v>
@@ -15752,7 +15752,7 @@
         <v>59025</v>
       </c>
       <c r="B68" t="n">
-        <v>145595</v>
+        <v>176898</v>
       </c>
       <c r="C68" t="s">
         <v>592</v>
@@ -15827,7 +15827,7 @@
         <v>59025</v>
       </c>
       <c r="B69" t="n">
-        <v>145596</v>
+        <v>176899</v>
       </c>
       <c r="C69" t="s">
         <v>601</v>
@@ -15973,7 +15973,7 @@
         <v>59025</v>
       </c>
       <c r="B71" t="n">
-        <v>145597</v>
+        <v>145571</v>
       </c>
       <c r="C71" t="s">
         <v>616</v>
@@ -16044,7 +16044,7 @@
         <v>59025</v>
       </c>
       <c r="B72" t="n">
-        <v>145598</v>
+        <v>176900</v>
       </c>
       <c r="C72" t="s">
         <v>626</v>
@@ -16115,7 +16115,7 @@
         <v>59025</v>
       </c>
       <c r="B73" t="n">
-        <v>145599</v>
+        <v>176901</v>
       </c>
       <c r="C73" t="s">
         <v>633</v>
@@ -16190,7 +16190,7 @@
         <v>59025</v>
       </c>
       <c r="B74" t="n">
-        <v>145600</v>
+        <v>176902</v>
       </c>
       <c r="C74" t="s">
         <v>642</v>
@@ -16265,7 +16265,7 @@
         <v>59025</v>
       </c>
       <c r="B75" t="n">
-        <v>145601</v>
+        <v>176903</v>
       </c>
       <c r="C75" t="s">
         <v>651</v>
@@ -16340,7 +16340,7 @@
         <v>59025</v>
       </c>
       <c r="B76" t="n">
-        <v>145602</v>
+        <v>176904</v>
       </c>
       <c r="C76" t="s">
         <v>660</v>
@@ -16415,7 +16415,7 @@
         <v>59025</v>
       </c>
       <c r="B77" t="n">
-        <v>145603</v>
+        <v>176905</v>
       </c>
       <c r="C77" t="s">
         <v>669</v>
@@ -16486,7 +16486,7 @@
         <v>59025</v>
       </c>
       <c r="B78" t="n">
-        <v>145604</v>
+        <v>176906</v>
       </c>
       <c r="C78" t="s">
         <v>678</v>
@@ -16561,7 +16561,7 @@
         <v>59025</v>
       </c>
       <c r="B79" t="n">
-        <v>145605</v>
+        <v>176907</v>
       </c>
       <c r="C79" t="s">
         <v>687</v>
@@ -16636,7 +16636,7 @@
         <v>59025</v>
       </c>
       <c r="B80" t="n">
-        <v>145606</v>
+        <v>176908</v>
       </c>
       <c r="C80" t="s">
         <v>694</v>
@@ -16707,7 +16707,7 @@
         <v>59025</v>
       </c>
       <c r="B81" t="n">
-        <v>145607</v>
+        <v>176909</v>
       </c>
       <c r="C81" t="s">
         <v>703</v>
@@ -16782,7 +16782,7 @@
         <v>59025</v>
       </c>
       <c r="B82" t="n">
-        <v>145608</v>
+        <v>176910</v>
       </c>
       <c r="C82" t="s">
         <v>713</v>
@@ -16857,7 +16857,7 @@
         <v>59025</v>
       </c>
       <c r="B83" t="n">
-        <v>145609</v>
+        <v>145582</v>
       </c>
       <c r="C83" t="s">
         <v>722</v>
@@ -16932,7 +16932,7 @@
         <v>59025</v>
       </c>
       <c r="B84" t="n">
-        <v>145610</v>
+        <v>176911</v>
       </c>
       <c r="C84" t="s">
         <v>731</v>
@@ -17007,7 +17007,7 @@
         <v>59025</v>
       </c>
       <c r="B85" t="n">
-        <v>145611</v>
+        <v>176912</v>
       </c>
       <c r="C85" t="s">
         <v>740</v>
@@ -17157,7 +17157,7 @@
         <v>59025</v>
       </c>
       <c r="B87" t="n">
-        <v>145612</v>
+        <v>176913</v>
       </c>
       <c r="C87" t="s">
         <v>756</v>
@@ -17307,7 +17307,7 @@
         <v>59025</v>
       </c>
       <c r="B89" t="n">
-        <v>145596</v>
+        <v>145571</v>
       </c>
       <c r="C89" t="s">
         <v>616</v>
@@ -17378,7 +17378,7 @@
         <v>59025</v>
       </c>
       <c r="B90" t="n">
-        <v>145613</v>
+        <v>176914</v>
       </c>
       <c r="C90" t="s">
         <v>777</v>
@@ -17512,7 +17512,7 @@
         <v>59025</v>
       </c>
       <c r="B92" t="n">
-        <v>145614</v>
+        <v>176915</v>
       </c>
       <c r="C92" t="s">
         <v>794</v>
@@ -17587,7 +17587,7 @@
         <v>59025</v>
       </c>
       <c r="B93" t="n">
-        <v>145568</v>
+        <v>145573</v>
       </c>
       <c r="C93" t="s">
         <v>285</v>
@@ -17662,7 +17662,7 @@
         <v>59025</v>
       </c>
       <c r="B94" t="n">
-        <v>145615</v>
+        <v>176916</v>
       </c>
       <c r="C94" t="s">
         <v>810</v>
@@ -17737,7 +17737,7 @@
         <v>59025</v>
       </c>
       <c r="B95" t="n">
-        <v>145616</v>
+        <v>176917</v>
       </c>
       <c r="C95" t="s">
         <v>819</v>
@@ -17962,7 +17962,7 @@
         <v>59025</v>
       </c>
       <c r="B98" t="n">
-        <v>145617</v>
+        <v>176918</v>
       </c>
       <c r="C98" t="s">
         <v>841</v>
@@ -18037,7 +18037,7 @@
         <v>59025</v>
       </c>
       <c r="B99" t="n">
-        <v>145618</v>
+        <v>176919</v>
       </c>
       <c r="C99" t="s">
         <v>850</v>
@@ -18112,7 +18112,7 @@
         <v>59025</v>
       </c>
       <c r="B100" t="n">
-        <v>145619</v>
+        <v>176920</v>
       </c>
       <c r="C100" t="s">
         <v>857</v>
@@ -18183,7 +18183,7 @@
         <v>59025</v>
       </c>
       <c r="B101" t="n">
-        <v>145620</v>
+        <v>176921</v>
       </c>
       <c r="C101" t="s">
         <v>864</v>
@@ -18258,7 +18258,7 @@
         <v>59025</v>
       </c>
       <c r="B102" t="n">
-        <v>145621</v>
+        <v>176922</v>
       </c>
       <c r="C102" t="s">
         <v>872</v>
@@ -18333,7 +18333,7 @@
         <v>59025</v>
       </c>
       <c r="B103" t="n">
-        <v>145622</v>
+        <v>176923</v>
       </c>
       <c r="C103" t="s">
         <v>881</v>
@@ -18408,7 +18408,7 @@
         <v>59025</v>
       </c>
       <c r="B104" t="n">
-        <v>145623</v>
+        <v>176924</v>
       </c>
       <c r="C104" t="s">
         <v>890</v>
@@ -18483,7 +18483,7 @@
         <v>59025</v>
       </c>
       <c r="B105" t="n">
-        <v>145624</v>
+        <v>176925</v>
       </c>
       <c r="C105" t="s">
         <v>897</v>
@@ -18558,7 +18558,7 @@
         <v>59025</v>
       </c>
       <c r="B106" t="n">
-        <v>145625</v>
+        <v>176926</v>
       </c>
       <c r="C106" t="s">
         <v>904</v>
@@ -18633,7 +18633,7 @@
         <v>59025</v>
       </c>
       <c r="B107" t="n">
-        <v>145626</v>
+        <v>176927</v>
       </c>
       <c r="C107" t="s">
         <v>910</v>
@@ -18783,7 +18783,7 @@
         <v>59025</v>
       </c>
       <c r="B109" t="n">
-        <v>145627</v>
+        <v>176928</v>
       </c>
       <c r="C109" t="s">
         <v>927</v>
@@ -19217,7 +19217,7 @@
         <v>59025</v>
       </c>
       <c r="B115" t="n">
-        <v>145628</v>
+        <v>176929</v>
       </c>
       <c r="C115" t="s">
         <v>976</v>
@@ -19292,7 +19292,7 @@
         <v>59025</v>
       </c>
       <c r="B116" t="n">
-        <v>145608</v>
+        <v>145582</v>
       </c>
       <c r="C116" t="s">
         <v>722</v>
@@ -19367,7 +19367,7 @@
         <v>59025</v>
       </c>
       <c r="B117" t="n">
-        <v>145629</v>
+        <v>176930</v>
       </c>
       <c r="C117" t="s">
         <v>993</v>
@@ -19511,7 +19511,7 @@
         <v>59025</v>
       </c>
       <c r="B119" t="n">
-        <v>145630</v>
+        <v>176931</v>
       </c>
       <c r="C119" t="s">
         <v>1009</v>
@@ -19572,7 +19572,7 @@
         <v>59025</v>
       </c>
       <c r="B120" t="n">
-        <v>145631</v>
+        <v>176932</v>
       </c>
       <c r="C120" t="s">
         <v>1018</v>
@@ -19645,7 +19645,7 @@
         <v>59025</v>
       </c>
       <c r="B121" t="n">
-        <v>145632</v>
+        <v>176933</v>
       </c>
       <c r="C121" t="s">
         <v>1024</v>
@@ -19870,7 +19870,7 @@
         <v>59025</v>
       </c>
       <c r="B124" t="n">
-        <v>145633</v>
+        <v>176934</v>
       </c>
       <c r="C124" t="s">
         <v>1049</v>
@@ -19945,7 +19945,7 @@
         <v>59025</v>
       </c>
       <c r="B125" t="n">
-        <v>145634</v>
+        <v>176935</v>
       </c>
       <c r="C125" t="s">
         <v>1058</v>
@@ -20020,7 +20020,7 @@
         <v>59025</v>
       </c>
       <c r="B126" t="n">
-        <v>145635</v>
+        <v>176936</v>
       </c>
       <c r="C126" t="s">
         <v>1065</v>
@@ -20166,7 +20166,7 @@
         <v>59025</v>
       </c>
       <c r="B128" t="n">
-        <v>145636</v>
+        <v>176937</v>
       </c>
       <c r="C128" t="s">
         <v>1083</v>
@@ -20235,7 +20235,7 @@
         <v>59025</v>
       </c>
       <c r="B129" t="n">
-        <v>145637</v>
+        <v>176938</v>
       </c>
       <c r="C129" t="s">
         <v>1093</v>
@@ -20454,7 +20454,7 @@
         <v>59025</v>
       </c>
       <c r="B132" t="n">
-        <v>145638</v>
+        <v>176939</v>
       </c>
       <c r="C132" t="s">
         <v>1117</v>
@@ -20604,7 +20604,7 @@
         <v>59025</v>
       </c>
       <c r="B134" t="n">
-        <v>145639</v>
+        <v>176940</v>
       </c>
       <c r="C134" t="s">
         <v>1130</v>
@@ -20754,7 +20754,7 @@
         <v>59025</v>
       </c>
       <c r="B136" t="n">
-        <v>145640</v>
+        <v>176941</v>
       </c>
       <c r="C136" t="s">
         <v>1145</v>
@@ -20829,7 +20829,7 @@
         <v>59025</v>
       </c>
       <c r="B137" t="n">
-        <v>145641</v>
+        <v>176942</v>
       </c>
       <c r="C137" t="s">
         <v>1152</v>
@@ -21279,7 +21279,7 @@
         <v>59025</v>
       </c>
       <c r="B143" t="n">
-        <v>145642</v>
+        <v>176943</v>
       </c>
       <c r="C143" t="s">
         <v>1197</v>
@@ -21354,7 +21354,7 @@
         <v>59025</v>
       </c>
       <c r="B144" t="n">
-        <v>145643</v>
+        <v>176944</v>
       </c>
       <c r="C144" t="s">
         <v>1206</v>
@@ -21429,7 +21429,7 @@
         <v>59025</v>
       </c>
       <c r="B145" t="n">
-        <v>145644</v>
+        <v>176945</v>
       </c>
       <c r="C145" t="s">
         <v>1213</v>
@@ -21502,7 +21502,7 @@
         <v>59025</v>
       </c>
       <c r="B146" t="n">
-        <v>145645</v>
+        <v>176946</v>
       </c>
       <c r="C146" t="s">
         <v>1220</v>
@@ -21571,7 +21571,7 @@
         <v>59025</v>
       </c>
       <c r="B147" t="n">
-        <v>145646</v>
+        <v>176947</v>
       </c>
       <c r="C147" t="s">
         <v>1229</v>
@@ -21636,7 +21636,7 @@
         <v>59025</v>
       </c>
       <c r="B148" t="n">
-        <v>145647</v>
+        <v>176948</v>
       </c>
       <c r="C148" t="s">
         <v>1238</v>
@@ -21707,7 +21707,7 @@
         <v>59025</v>
       </c>
       <c r="B149" t="n">
-        <v>145648</v>
+        <v>176949</v>
       </c>
       <c r="C149" t="s">
         <v>1244</v>
@@ -21782,7 +21782,7 @@
         <v>59025</v>
       </c>
       <c r="B150" t="n">
-        <v>145649</v>
+        <v>176950</v>
       </c>
       <c r="C150" t="s">
         <v>1253</v>
@@ -21999,7 +21999,7 @@
         <v>59025</v>
       </c>
       <c r="B153" t="n">
-        <v>145650</v>
+        <v>176951</v>
       </c>
       <c r="C153" t="s">
         <v>1278</v>
@@ -22074,7 +22074,7 @@
         <v>59025</v>
       </c>
       <c r="B154" t="n">
-        <v>145651</v>
+        <v>176952</v>
       </c>
       <c r="C154" t="s">
         <v>1284</v>
@@ -22149,7 +22149,7 @@
         <v>59025</v>
       </c>
       <c r="B155" t="n">
-        <v>145652</v>
+        <v>176953</v>
       </c>
       <c r="C155" t="s">
         <v>1290</v>
@@ -22224,7 +22224,7 @@
         <v>59025</v>
       </c>
       <c r="B156" t="n">
-        <v>145653</v>
+        <v>176954</v>
       </c>
       <c r="C156" t="s">
         <v>1300</v>
@@ -22289,7 +22289,7 @@
         <v>59025</v>
       </c>
       <c r="B157" t="n">
-        <v>145654</v>
+        <v>176955</v>
       </c>
       <c r="C157" t="s">
         <v>1307</v>
@@ -22364,7 +22364,7 @@
         <v>59025</v>
       </c>
       <c r="B158" t="n">
-        <v>145655</v>
+        <v>176956</v>
       </c>
       <c r="C158" t="s">
         <v>1313</v>
@@ -22660,7 +22660,7 @@
         <v>59025</v>
       </c>
       <c r="B162" t="n">
-        <v>145656</v>
+        <v>176957</v>
       </c>
       <c r="C162" t="s">
         <v>1340</v>
@@ -22735,7 +22735,7 @@
         <v>59025</v>
       </c>
       <c r="B163" t="n">
-        <v>145657</v>
+        <v>176958</v>
       </c>
       <c r="C163" t="s">
         <v>1347</v>
@@ -22885,7 +22885,7 @@
         <v>59025</v>
       </c>
       <c r="B165" t="n">
-        <v>145658</v>
+        <v>176959</v>
       </c>
       <c r="C165" t="s">
         <v>1365</v>
@@ -22960,7 +22960,7 @@
         <v>59025</v>
       </c>
       <c r="B166" t="n">
-        <v>145659</v>
+        <v>176960</v>
       </c>
       <c r="C166" t="s">
         <v>1371</v>
@@ -23035,7 +23035,7 @@
         <v>59025</v>
       </c>
       <c r="B167" t="n">
-        <v>145660</v>
+        <v>176961</v>
       </c>
       <c r="C167" t="s">
         <v>1380</v>
@@ -23110,7 +23110,7 @@
         <v>59025</v>
       </c>
       <c r="B168" t="n">
-        <v>145661</v>
+        <v>176962</v>
       </c>
       <c r="C168" t="s">
         <v>1390</v>
@@ -23185,7 +23185,7 @@
         <v>59025</v>
       </c>
       <c r="B169" t="n">
-        <v>145662</v>
+        <v>176963</v>
       </c>
       <c r="C169" t="s">
         <v>1397</v>
@@ -23260,7 +23260,7 @@
         <v>59025</v>
       </c>
       <c r="B170" t="n">
-        <v>145663</v>
+        <v>176964</v>
       </c>
       <c r="C170" t="s">
         <v>1404</v>
@@ -23335,7 +23335,7 @@
         <v>59025</v>
       </c>
       <c r="B171" t="n">
-        <v>145664</v>
+        <v>176965</v>
       </c>
       <c r="C171" t="s">
         <v>1413</v>
@@ -23410,7 +23410,7 @@
         <v>59025</v>
       </c>
       <c r="B172" t="n">
-        <v>145665</v>
+        <v>176966</v>
       </c>
       <c r="C172" t="s">
         <v>1419</v>
@@ -23485,7 +23485,7 @@
         <v>59025</v>
       </c>
       <c r="B173" t="n">
-        <v>145666</v>
+        <v>176967</v>
       </c>
       <c r="C173" t="s">
         <v>1427</v>
@@ -23560,7 +23560,7 @@
         <v>59025</v>
       </c>
       <c r="B174" t="n">
-        <v>145667</v>
+        <v>176968</v>
       </c>
       <c r="C174" t="s">
         <v>1436</v>
@@ -23625,7 +23625,7 @@
         <v>59025</v>
       </c>
       <c r="B175" t="n">
-        <v>145668</v>
+        <v>176969</v>
       </c>
       <c r="C175" t="s">
         <v>1444</v>
@@ -23700,7 +23700,7 @@
         <v>59025</v>
       </c>
       <c r="B176" t="n">
-        <v>145669</v>
+        <v>176970</v>
       </c>
       <c r="C176" t="s">
         <v>1451</v>
@@ -23850,7 +23850,7 @@
         <v>59025</v>
       </c>
       <c r="B178" t="n">
-        <v>145670</v>
+        <v>176971</v>
       </c>
       <c r="C178" t="s">
         <v>1467</v>
@@ -23925,7 +23925,7 @@
         <v>59025</v>
       </c>
       <c r="B179" t="n">
-        <v>145671</v>
+        <v>176972</v>
       </c>
       <c r="C179" t="s">
         <v>1474</v>
@@ -24000,7 +24000,7 @@
         <v>59025</v>
       </c>
       <c r="B180" t="n">
-        <v>145672</v>
+        <v>176973</v>
       </c>
       <c r="C180" t="s">
         <v>1483</v>
@@ -24075,7 +24075,7 @@
         <v>59025</v>
       </c>
       <c r="B181" t="n">
-        <v>145673</v>
+        <v>176974</v>
       </c>
       <c r="C181" t="s">
         <v>1489</v>
@@ -24140,7 +24140,7 @@
         <v>59025</v>
       </c>
       <c r="B182" t="n">
-        <v>145674</v>
+        <v>176975</v>
       </c>
       <c r="C182" t="s">
         <v>1497</v>
@@ -24215,7 +24215,7 @@
         <v>59025</v>
       </c>
       <c r="B183" t="n">
-        <v>145675</v>
+        <v>176976</v>
       </c>
       <c r="C183" t="s">
         <v>1506</v>
@@ -24430,7 +24430,7 @@
         <v>59025</v>
       </c>
       <c r="B186" t="n">
-        <v>145676</v>
+        <v>176977</v>
       </c>
       <c r="C186" t="s">
         <v>1529</v>
@@ -24795,7 +24795,7 @@
         <v>59025</v>
       </c>
       <c r="B191" t="n">
-        <v>145677</v>
+        <v>176978</v>
       </c>
       <c r="C191" t="s">
         <v>1567</v>
@@ -25020,7 +25020,7 @@
         <v>59025</v>
       </c>
       <c r="B194" t="n">
-        <v>145678</v>
+        <v>176979</v>
       </c>
       <c r="C194" t="s">
         <v>1587</v>
@@ -25095,7 +25095,7 @@
         <v>59025</v>
       </c>
       <c r="B195" t="n">
-        <v>145679</v>
+        <v>176980</v>
       </c>
       <c r="C195" t="s">
         <v>1597</v>
@@ -25164,7 +25164,7 @@
         <v>59025</v>
       </c>
       <c r="B196" t="n">
-        <v>145680</v>
+        <v>176981</v>
       </c>
       <c r="C196" t="s">
         <v>1604</v>
@@ -25306,7 +25306,7 @@
         <v>59025</v>
       </c>
       <c r="B198" t="n">
-        <v>145681</v>
+        <v>176982</v>
       </c>
       <c r="C198" t="s">
         <v>1622</v>
@@ -25381,7 +25381,7 @@
         <v>59025</v>
       </c>
       <c r="B199" t="n">
-        <v>145682</v>
+        <v>176983</v>
       </c>
       <c r="C199" t="s">
         <v>1629</v>
@@ -25456,7 +25456,7 @@
         <v>59025</v>
       </c>
       <c r="B200" t="n">
-        <v>145683</v>
+        <v>176984</v>
       </c>
       <c r="C200" t="s">
         <v>1636</v>
@@ -25525,7 +25525,7 @@
         <v>59025</v>
       </c>
       <c r="B201" t="n">
-        <v>145684</v>
+        <v>176985</v>
       </c>
       <c r="C201" t="s">
         <v>1643</v>
@@ -25600,7 +25600,7 @@
         <v>59025</v>
       </c>
       <c r="B202" t="n">
-        <v>145685</v>
+        <v>176986</v>
       </c>
       <c r="C202" t="s">
         <v>1653</v>
@@ -26024,7 +26024,7 @@
         <v>59025</v>
       </c>
       <c r="B208" t="n">
-        <v>145686</v>
+        <v>176987</v>
       </c>
       <c r="C208" t="s">
         <v>1697</v>
@@ -26243,7 +26243,7 @@
         <v>59025</v>
       </c>
       <c r="B211" t="n">
-        <v>145687</v>
+        <v>176988</v>
       </c>
       <c r="C211" t="s">
         <v>1722</v>
@@ -26679,7 +26679,7 @@
         <v>59025</v>
       </c>
       <c r="B217" t="n">
-        <v>145688</v>
+        <v>176989</v>
       </c>
       <c r="C217" t="s">
         <v>1773</v>
@@ -26894,7 +26894,7 @@
         <v>59025</v>
       </c>
       <c r="B220" t="n">
-        <v>145689</v>
+        <v>176990</v>
       </c>
       <c r="C220" t="s">
         <v>1796</v>
@@ -27115,7 +27115,7 @@
         <v>59025</v>
       </c>
       <c r="B223" t="n">
-        <v>145690</v>
+        <v>176991</v>
       </c>
       <c r="C223" t="s">
         <v>1821</v>
@@ -27255,7 +27255,7 @@
         <v>59025</v>
       </c>
       <c r="B225" t="n">
-        <v>145691</v>
+        <v>176992</v>
       </c>
       <c r="C225" t="s">
         <v>1837</v>
@@ -27405,7 +27405,7 @@
         <v>59025</v>
       </c>
       <c r="B227" t="n">
-        <v>145692</v>
+        <v>176993</v>
       </c>
       <c r="C227" t="s">
         <v>1853</v>
@@ -27545,7 +27545,7 @@
         <v>59025</v>
       </c>
       <c r="B229" t="n">
-        <v>145693</v>
+        <v>176994</v>
       </c>
       <c r="C229" t="s">
         <v>1866</v>
@@ -27620,7 +27620,7 @@
         <v>59025</v>
       </c>
       <c r="B230" t="n">
-        <v>145694</v>
+        <v>176995</v>
       </c>
       <c r="C230" t="s">
         <v>1875</v>
@@ -27764,7 +27764,7 @@
         <v>59025</v>
       </c>
       <c r="B232" t="n">
-        <v>145695</v>
+        <v>176996</v>
       </c>
       <c r="C232" t="s">
         <v>1890</v>
@@ -27839,7 +27839,7 @@
         <v>59025</v>
       </c>
       <c r="B233" t="n">
-        <v>145696</v>
+        <v>176997</v>
       </c>
       <c r="C233" t="s">
         <v>1900</v>
@@ -27989,7 +27989,7 @@
         <v>59025</v>
       </c>
       <c r="B235" t="n">
-        <v>145697</v>
+        <v>176998</v>
       </c>
       <c r="C235" t="s">
         <v>1918</v>
@@ -28064,7 +28064,7 @@
         <v>59025</v>
       </c>
       <c r="B236" t="n">
-        <v>145698</v>
+        <v>176999</v>
       </c>
       <c r="C236" t="s">
         <v>1925</v>
@@ -28577,7 +28577,7 @@
         <v>59025</v>
       </c>
       <c r="B243" t="n">
-        <v>145699</v>
+        <v>177000</v>
       </c>
       <c r="C243" t="s">
         <v>1981</v>
@@ -28723,7 +28723,7 @@
         <v>59025</v>
       </c>
       <c r="B245" t="n">
-        <v>145700</v>
+        <v>177001</v>
       </c>
       <c r="C245" t="s">
         <v>1999</v>
@@ -28798,7 +28798,7 @@
         <v>59025</v>
       </c>
       <c r="B246" t="n">
-        <v>145701</v>
+        <v>177002</v>
       </c>
       <c r="C246" t="s">
         <v>2008</v>
@@ -28934,7 +28934,7 @@
         <v>59025</v>
       </c>
       <c r="B248" t="n">
-        <v>145702</v>
+        <v>177003</v>
       </c>
       <c r="C248" t="s">
         <v>2025</v>
@@ -29084,7 +29084,7 @@
         <v>59025</v>
       </c>
       <c r="B250" t="n">
-        <v>145703</v>
+        <v>177004</v>
       </c>
       <c r="C250" t="s">
         <v>2041</v>
@@ -29228,7 +29228,7 @@
         <v>59025</v>
       </c>
       <c r="B252" t="n">
-        <v>145704</v>
+        <v>177005</v>
       </c>
       <c r="C252" t="s">
         <v>2055</v>
@@ -29299,7 +29299,7 @@
         <v>59025</v>
       </c>
       <c r="B253" t="n">
-        <v>145705</v>
+        <v>177006</v>
       </c>
       <c r="C253" t="s">
         <v>2064</v>
@@ -29374,7 +29374,7 @@
         <v>59025</v>
       </c>
       <c r="B254" t="n">
-        <v>145706</v>
+        <v>145715</v>
       </c>
       <c r="C254" t="s">
         <v>2070</v>
@@ -29672,7 +29672,7 @@
         <v>59025</v>
       </c>
       <c r="B258" t="n">
-        <v>145707</v>
+        <v>177007</v>
       </c>
       <c r="C258" t="s">
         <v>2098</v>
@@ -29747,7 +29747,7 @@
         <v>59025</v>
       </c>
       <c r="B259" t="n">
-        <v>145708</v>
+        <v>177008</v>
       </c>
       <c r="C259" t="s">
         <v>2105</v>
@@ -29822,7 +29822,7 @@
         <v>59025</v>
       </c>
       <c r="B260" t="n">
-        <v>145709</v>
+        <v>177009</v>
       </c>
       <c r="C260" t="s">
         <v>2112</v>
@@ -30191,7 +30191,7 @@
         <v>59025</v>
       </c>
       <c r="B265" t="n">
-        <v>145710</v>
+        <v>177010</v>
       </c>
       <c r="C265" t="s">
         <v>2146</v>
@@ -30262,7 +30262,7 @@
         <v>59025</v>
       </c>
       <c r="B266" t="n">
-        <v>145711</v>
+        <v>177011</v>
       </c>
       <c r="C266" t="s">
         <v>2153</v>
@@ -30333,7 +30333,7 @@
         <v>59025</v>
       </c>
       <c r="B267" t="n">
-        <v>145712</v>
+        <v>177012</v>
       </c>
       <c r="C267" t="s">
         <v>2160</v>
@@ -30544,7 +30544,7 @@
         <v>59025</v>
       </c>
       <c r="B270" t="n">
-        <v>145713</v>
+        <v>177013</v>
       </c>
       <c r="C270" t="s">
         <v>2187</v>
@@ -30605,7 +30605,7 @@
         <v>59025</v>
       </c>
       <c r="B271" t="n">
-        <v>145714</v>
+        <v>145682</v>
       </c>
       <c r="C271" t="s">
         <v>2193</v>
@@ -30680,7 +30680,7 @@
         <v>59025</v>
       </c>
       <c r="B272" t="n">
-        <v>145715</v>
+        <v>177014</v>
       </c>
       <c r="C272" t="s">
         <v>2203</v>
@@ -30826,7 +30826,7 @@
         <v>59025</v>
       </c>
       <c r="B274" t="n">
-        <v>145716</v>
+        <v>177015</v>
       </c>
       <c r="C274" t="s">
         <v>2219</v>
@@ -30970,7 +30970,7 @@
         <v>59025</v>
       </c>
       <c r="B276" t="n">
-        <v>145717</v>
+        <v>177016</v>
       </c>
       <c r="C276" t="s">
         <v>2233</v>
@@ -31341,7 +31341,7 @@
         <v>59025</v>
       </c>
       <c r="B281" t="n">
-        <v>145718</v>
+        <v>177017</v>
       </c>
       <c r="C281" t="s">
         <v>2268</v>
@@ -31416,7 +31416,7 @@
         <v>59025</v>
       </c>
       <c r="B282" t="n">
-        <v>145719</v>
+        <v>177018</v>
       </c>
       <c r="C282" t="s">
         <v>2275</v>
@@ -31791,7 +31791,7 @@
         <v>59025</v>
       </c>
       <c r="B287" t="n">
-        <v>145720</v>
+        <v>145696</v>
       </c>
       <c r="C287" t="s">
         <v>2312</v>
@@ -32310,7 +32310,7 @@
         <v>59025</v>
       </c>
       <c r="B294" t="n">
-        <v>145721</v>
+        <v>177019</v>
       </c>
       <c r="C294" t="s">
         <v>2367</v>
@@ -32460,7 +32460,7 @@
         <v>59025</v>
       </c>
       <c r="B296" t="n">
-        <v>145722</v>
+        <v>177020</v>
       </c>
       <c r="C296" t="s">
         <v>2383</v>
@@ -32673,7 +32673,7 @@
         <v>59025</v>
       </c>
       <c r="B299" t="n">
-        <v>145723</v>
+        <v>177021</v>
       </c>
       <c r="C299" t="s">
         <v>2406</v>
@@ -32738,7 +32738,7 @@
         <v>59025</v>
       </c>
       <c r="B300" t="n">
-        <v>145724</v>
+        <v>177022</v>
       </c>
       <c r="C300" t="s">
         <v>2413</v>
@@ -32813,7 +32813,7 @@
         <v>59025</v>
       </c>
       <c r="B301" t="n">
-        <v>145725</v>
+        <v>177023</v>
       </c>
       <c r="C301" t="s">
         <v>2422</v>
@@ -32888,7 +32888,7 @@
         <v>59025</v>
       </c>
       <c r="B302" t="n">
-        <v>145726</v>
+        <v>177024</v>
       </c>
       <c r="C302" t="s">
         <v>2431</v>
@@ -32959,7 +32959,7 @@
         <v>59025</v>
       </c>
       <c r="B303" t="n">
-        <v>145727</v>
+        <v>177025</v>
       </c>
       <c r="C303" t="s">
         <v>2438</v>
@@ -33034,7 +33034,7 @@
         <v>59025</v>
       </c>
       <c r="B304" t="n">
-        <v>145728</v>
+        <v>177026</v>
       </c>
       <c r="C304" t="s">
         <v>2446</v>
@@ -33180,7 +33180,7 @@
         <v>59025</v>
       </c>
       <c r="B306" t="n">
-        <v>145729</v>
+        <v>177027</v>
       </c>
       <c r="C306" t="s">
         <v>2462</v>
@@ -33326,7 +33326,7 @@
         <v>59025</v>
       </c>
       <c r="B308" t="n">
-        <v>145730</v>
+        <v>177028</v>
       </c>
       <c r="C308" t="s">
         <v>2475</v>
@@ -33466,7 +33466,7 @@
         <v>59025</v>
       </c>
       <c r="B310" t="n">
-        <v>145731</v>
+        <v>177029</v>
       </c>
       <c r="C310" t="s">
         <v>2492</v>
@@ -33541,7 +33541,7 @@
         <v>59025</v>
       </c>
       <c r="B311" t="n">
-        <v>145732</v>
+        <v>177030</v>
       </c>
       <c r="C311" t="s">
         <v>2498</v>
@@ -33691,7 +33691,7 @@
         <v>59025</v>
       </c>
       <c r="B313" t="n">
-        <v>145733</v>
+        <v>177031</v>
       </c>
       <c r="C313" t="s">
         <v>2512</v>
@@ -33756,7 +33756,7 @@
         <v>59025</v>
       </c>
       <c r="B314" t="n">
-        <v>145734</v>
+        <v>177032</v>
       </c>
       <c r="C314" t="s">
         <v>2521</v>
@@ -33831,7 +33831,7 @@
         <v>59025</v>
       </c>
       <c r="B315" t="n">
-        <v>145735</v>
+        <v>177033</v>
       </c>
       <c r="C315" t="s">
         <v>2528</v>
@@ -33981,7 +33981,7 @@
         <v>59025</v>
       </c>
       <c r="B317" t="n">
-        <v>145736</v>
+        <v>177034</v>
       </c>
       <c r="C317" t="s">
         <v>2542</v>
@@ -34056,7 +34056,7 @@
         <v>59025</v>
       </c>
       <c r="B318" t="n">
-        <v>145737</v>
+        <v>177035</v>
       </c>
       <c r="C318" t="s">
         <v>2550</v>
@@ -34498,7 +34498,7 @@
         <v>59025</v>
       </c>
       <c r="B324" t="n">
-        <v>145738</v>
+        <v>177036</v>
       </c>
       <c r="C324" t="s">
         <v>2594</v>
@@ -34648,7 +34648,7 @@
         <v>59025</v>
       </c>
       <c r="B326" t="n">
-        <v>145739</v>
+        <v>177037</v>
       </c>
       <c r="C326" t="s">
         <v>2610</v>
@@ -34723,7 +34723,7 @@
         <v>59025</v>
       </c>
       <c r="B327" t="n">
-        <v>145713</v>
+        <v>145682</v>
       </c>
       <c r="C327" t="s">
         <v>2193</v>
@@ -34873,7 +34873,7 @@
         <v>59025</v>
       </c>
       <c r="B329" t="n">
-        <v>145740</v>
+        <v>177038</v>
       </c>
       <c r="C329" t="s">
         <v>2632</v>
@@ -34948,7 +34948,7 @@
         <v>59025</v>
       </c>
       <c r="B330" t="n">
-        <v>145741</v>
+        <v>177039</v>
       </c>
       <c r="C330" t="s">
         <v>2641</v>
@@ -35163,7 +35163,7 @@
         <v>59025</v>
       </c>
       <c r="B333" t="n">
-        <v>145742</v>
+        <v>177040</v>
       </c>
       <c r="C333" t="s">
         <v>2667</v>
@@ -35313,7 +35313,7 @@
         <v>59025</v>
       </c>
       <c r="B335" t="n">
-        <v>145743</v>
+        <v>177041</v>
       </c>
       <c r="C335" t="s">
         <v>2681</v>
@@ -35388,7 +35388,7 @@
         <v>59025</v>
       </c>
       <c r="B336" t="n">
-        <v>145744</v>
+        <v>177042</v>
       </c>
       <c r="C336" t="s">
         <v>2690</v>
@@ -35534,7 +35534,7 @@
         <v>59025</v>
       </c>
       <c r="B338" t="n">
-        <v>145745</v>
+        <v>177043</v>
       </c>
       <c r="C338" t="s">
         <v>2703</v>
@@ -35684,7 +35684,7 @@
         <v>59025</v>
       </c>
       <c r="B340" t="n">
-        <v>145746</v>
+        <v>177044</v>
       </c>
       <c r="C340" t="s">
         <v>2721</v>
@@ -35824,7 +35824,7 @@
         <v>59025</v>
       </c>
       <c r="B342" t="n">
-        <v>145747</v>
+        <v>177045</v>
       </c>
       <c r="C342" t="s">
         <v>2735</v>
@@ -36049,7 +36049,7 @@
         <v>59025</v>
       </c>
       <c r="B345" t="n">
-        <v>145748</v>
+        <v>177046</v>
       </c>
       <c r="C345" t="s">
         <v>2757</v>
@@ -36122,7 +36122,7 @@
         <v>59025</v>
       </c>
       <c r="B346" t="n">
-        <v>145749</v>
+        <v>177047</v>
       </c>
       <c r="C346" t="s">
         <v>2766</v>
@@ -36268,7 +36268,7 @@
         <v>59025</v>
       </c>
       <c r="B348" t="n">
-        <v>145750</v>
+        <v>177048</v>
       </c>
       <c r="C348" t="s">
         <v>2780</v>
@@ -36414,7 +36414,7 @@
         <v>59025</v>
       </c>
       <c r="B350" t="n">
-        <v>145751</v>
+        <v>177049</v>
       </c>
       <c r="C350" t="s">
         <v>2793</v>
@@ -36485,7 +36485,7 @@
         <v>59025</v>
       </c>
       <c r="B351" t="n">
-        <v>145752</v>
+        <v>177050</v>
       </c>
       <c r="C351" t="s">
         <v>2802</v>
@@ -36627,7 +36627,7 @@
         <v>59025</v>
       </c>
       <c r="B353" t="n">
-        <v>145753</v>
+        <v>177051</v>
       </c>
       <c r="C353" t="s">
         <v>2816</v>
@@ -36702,7 +36702,7 @@
         <v>59025</v>
       </c>
       <c r="B354" t="n">
-        <v>145754</v>
+        <v>177052</v>
       </c>
       <c r="C354" t="s">
         <v>2825</v>
@@ -36848,7 +36848,7 @@
         <v>59025</v>
       </c>
       <c r="B356" t="n">
-        <v>145719</v>
+        <v>145696</v>
       </c>
       <c r="C356" t="s">
         <v>2312</v>
@@ -37073,7 +37073,7 @@
         <v>59025</v>
       </c>
       <c r="B359" t="n">
-        <v>145755</v>
+        <v>177053</v>
       </c>
       <c r="C359" t="s">
         <v>2861</v>
@@ -37223,7 +37223,7 @@
         <v>59025</v>
       </c>
       <c r="B361" t="n">
-        <v>145756</v>
+        <v>177054</v>
       </c>
       <c r="C361" t="s">
         <v>2875</v>
@@ -37823,7 +37823,7 @@
         <v>59025</v>
       </c>
       <c r="B369" t="n">
-        <v>145757</v>
+        <v>177055</v>
       </c>
       <c r="C369" t="s">
         <v>2934</v>
@@ -37973,7 +37973,7 @@
         <v>59025</v>
       </c>
       <c r="B371" t="n">
-        <v>145758</v>
+        <v>177056</v>
       </c>
       <c r="C371" t="s">
         <v>2948</v>
@@ -38198,7 +38198,7 @@
         <v>59025</v>
       </c>
       <c r="B374" t="n">
-        <v>145759</v>
+        <v>177057</v>
       </c>
       <c r="C374" t="s">
         <v>2968</v>
@@ -38348,7 +38348,7 @@
         <v>59025</v>
       </c>
       <c r="B376" t="n">
-        <v>145760</v>
+        <v>177058</v>
       </c>
       <c r="C376" t="s">
         <v>2982</v>
@@ -38498,7 +38498,7 @@
         <v>59025</v>
       </c>
       <c r="B378" t="n">
-        <v>145761</v>
+        <v>177059</v>
       </c>
       <c r="C378" t="s">
         <v>2995</v>
@@ -38573,7 +38573,7 @@
         <v>59025</v>
       </c>
       <c r="B379" t="n">
-        <v>145762</v>
+        <v>177060</v>
       </c>
       <c r="C379" t="s">
         <v>3003</v>
@@ -38648,7 +38648,7 @@
         <v>59025</v>
       </c>
       <c r="B380" t="n">
-        <v>145763</v>
+        <v>177061</v>
       </c>
       <c r="C380" t="s">
         <v>3010</v>
@@ -38719,7 +38719,7 @@
         <v>59025</v>
       </c>
       <c r="B381" t="n">
-        <v>145764</v>
+        <v>177062</v>
       </c>
       <c r="C381" t="s">
         <v>3017</v>
@@ -38944,7 +38944,7 @@
         <v>59025</v>
       </c>
       <c r="B384" t="n">
-        <v>145765</v>
+        <v>177063</v>
       </c>
       <c r="C384" t="s">
         <v>3038</v>
@@ -39094,7 +39094,7 @@
         <v>59025</v>
       </c>
       <c r="B386" t="n">
-        <v>145705</v>
+        <v>145715</v>
       </c>
       <c r="C386" t="s">
         <v>2070</v>
@@ -39469,7 +39469,7 @@
         <v>59025</v>
       </c>
       <c r="B391" t="n">
-        <v>145766</v>
+        <v>177064</v>
       </c>
       <c r="C391" t="s">
         <v>3090</v>
@@ -39611,7 +39611,7 @@
         <v>59025</v>
       </c>
       <c r="B393" t="n">
-        <v>145767</v>
+        <v>177065</v>
       </c>
       <c r="C393" t="s">
         <v>3106</v>
@@ -39757,7 +39757,7 @@
         <v>59025</v>
       </c>
       <c r="B395" t="n">
-        <v>145768</v>
+        <v>177066</v>
       </c>
       <c r="C395" t="s">
         <v>3121</v>
@@ -39907,7 +39907,7 @@
         <v>59025</v>
       </c>
       <c r="B397" t="n">
-        <v>145769</v>
+        <v>177067</v>
       </c>
       <c r="C397" t="s">
         <v>3138</v>
@@ -39982,7 +39982,7 @@
         <v>59025</v>
       </c>
       <c r="B398" t="n">
-        <v>145770</v>
+        <v>177068</v>
       </c>
       <c r="C398" t="s">
         <v>3146</v>
@@ -40053,7 +40053,7 @@
         <v>59025</v>
       </c>
       <c r="B399" t="n">
-        <v>145771</v>
+        <v>177069</v>
       </c>
       <c r="C399" t="s">
         <v>3155</v>
@@ -40124,7 +40124,7 @@
         <v>59025</v>
       </c>
       <c r="B400" t="n">
-        <v>145772</v>
+        <v>177070</v>
       </c>
       <c r="C400" t="s">
         <v>3161</v>
@@ -40499,7 +40499,7 @@
         <v>59025</v>
       </c>
       <c r="B405" t="n">
-        <v>145773</v>
+        <v>177071</v>
       </c>
       <c r="C405" t="s">
         <v>3203</v>
@@ -40574,7 +40574,7 @@
         <v>59025</v>
       </c>
       <c r="B406" t="n">
-        <v>145774</v>
+        <v>177072</v>
       </c>
       <c r="C406" t="s">
         <v>3211</v>
@@ -40649,7 +40649,7 @@
         <v>59025</v>
       </c>
       <c r="B407" t="n">
-        <v>145775</v>
+        <v>177073</v>
       </c>
       <c r="C407" t="s">
         <v>3218</v>
@@ -40720,7 +40720,7 @@
         <v>59025</v>
       </c>
       <c r="B408" t="n">
-        <v>145776</v>
+        <v>177074</v>
       </c>
       <c r="C408" t="s">
         <v>3227</v>
@@ -40866,7 +40866,7 @@
         <v>59025</v>
       </c>
       <c r="B410" t="n">
-        <v>145777</v>
+        <v>177075</v>
       </c>
       <c r="C410" t="s">
         <v>3241</v>
@@ -40931,7 +40931,7 @@
         <v>59025</v>
       </c>
       <c r="B411" t="n">
-        <v>145778</v>
+        <v>177076</v>
       </c>
       <c r="C411" t="s">
         <v>3251</v>
@@ -40998,7 +40998,7 @@
         <v>59025</v>
       </c>
       <c r="B412" t="n">
-        <v>145779</v>
+        <v>177077</v>
       </c>
       <c r="C412" t="s">
         <v>3257</v>
@@ -41223,7 +41223,7 @@
         <v>59025</v>
       </c>
       <c r="B415" t="n">
-        <v>145780</v>
+        <v>177078</v>
       </c>
       <c r="C415" t="s">
         <v>3282</v>
@@ -41298,7 +41298,7 @@
         <v>59025</v>
       </c>
       <c r="B416" t="n">
-        <v>145781</v>
+        <v>177079</v>
       </c>
       <c r="C416" t="s">
         <v>3289</v>
@@ -41373,7 +41373,7 @@
         <v>59025</v>
       </c>
       <c r="B417" t="n">
-        <v>145782</v>
+        <v>145733</v>
       </c>
       <c r="C417" t="s">
         <v>3297</v>
@@ -41448,7 +41448,7 @@
         <v>59025</v>
       </c>
       <c r="B418" t="n">
-        <v>145592</v>
+        <v>145730</v>
       </c>
       <c r="C418" t="s">
         <v>578</v>
@@ -41523,7 +41523,7 @@
         <v>59025</v>
       </c>
       <c r="B419" t="n">
-        <v>145783</v>
+        <v>177080</v>
       </c>
       <c r="C419" t="s">
         <v>3311</v>
@@ -41598,7 +41598,7 @@
         <v>59025</v>
       </c>
       <c r="B420" t="n">
-        <v>145784</v>
+        <v>177081</v>
       </c>
       <c r="C420" t="s">
         <v>3321</v>
@@ -41669,7 +41669,7 @@
         <v>59025</v>
       </c>
       <c r="B421" t="n">
-        <v>145785</v>
+        <v>177082</v>
       </c>
       <c r="C421" t="s">
         <v>3327</v>
@@ -41740,7 +41740,7 @@
         <v>59025</v>
       </c>
       <c r="B422" t="n">
-        <v>145786</v>
+        <v>177083</v>
       </c>
       <c r="C422" t="s">
         <v>3334</v>
@@ -41815,7 +41815,7 @@
         <v>59025</v>
       </c>
       <c r="B423" t="n">
-        <v>145787</v>
+        <v>177084</v>
       </c>
       <c r="C423" t="s">
         <v>3342</v>
@@ -41890,7 +41890,7 @@
         <v>59025</v>
       </c>
       <c r="B424" t="n">
-        <v>145788</v>
+        <v>177085</v>
       </c>
       <c r="C424" t="s">
         <v>3349</v>
@@ -42038,7 +42038,7 @@
         <v>59025</v>
       </c>
       <c r="B426" t="n">
-        <v>145789</v>
+        <v>177086</v>
       </c>
       <c r="C426" t="s">
         <v>3365</v>
@@ -42111,7 +42111,7 @@
         <v>59025</v>
       </c>
       <c r="B427" t="n">
-        <v>145790</v>
+        <v>177087</v>
       </c>
       <c r="C427" t="s">
         <v>3372</v>
@@ -42253,7 +42253,7 @@
         <v>59025</v>
       </c>
       <c r="B429" t="n">
-        <v>145781</v>
+        <v>145733</v>
       </c>
       <c r="C429" t="s">
         <v>3297</v>
@@ -42324,7 +42324,7 @@
         <v>59025</v>
       </c>
       <c r="B430" t="n">
-        <v>145791</v>
+        <v>177088</v>
       </c>
       <c r="C430" t="s">
         <v>3393</v>
@@ -42468,7 +42468,7 @@
         <v>59025</v>
       </c>
       <c r="B432" t="n">
-        <v>145792</v>
+        <v>177089</v>
       </c>
       <c r="C432" t="s">
         <v>3409</v>
@@ -42543,7 +42543,7 @@
         <v>59025</v>
       </c>
       <c r="B433" t="n">
-        <v>145793</v>
+        <v>177090</v>
       </c>
       <c r="C433" t="s">
         <v>3417</v>
@@ -42618,7 +42618,7 @@
         <v>59025</v>
       </c>
       <c r="B434" t="n">
-        <v>145794</v>
+        <v>177091</v>
       </c>
       <c r="C434" t="s">
         <v>3425</v>
@@ -42693,7 +42693,7 @@
         <v>59025</v>
       </c>
       <c r="B435" t="n">
-        <v>145795</v>
+        <v>177092</v>
       </c>
       <c r="C435" t="s">
         <v>3433</v>
@@ -42754,7 +42754,7 @@
         <v>59025</v>
       </c>
       <c r="B436" t="n">
-        <v>145796</v>
+        <v>177093</v>
       </c>
       <c r="C436" t="s">
         <v>3440</v>
